--- a/data/pca/factorExposure/factorExposure_2015-04-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-04-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.02133193369378448</v>
+        <v>0.01180881834977425</v>
       </c>
       <c r="C2">
-        <v>0.0216895884578464</v>
+        <v>-0.05105223461007887</v>
       </c>
       <c r="D2">
-        <v>-0.1055147266124186</v>
+        <v>-0.1287332577937274</v>
       </c>
       <c r="E2">
-        <v>0.01901415701331985</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02301746201403381</v>
+      </c>
+      <c r="F2">
+        <v>-0.02941839364117853</v>
+      </c>
+      <c r="G2">
+        <v>0.1022069276127962</v>
+      </c>
+      <c r="H2">
+        <v>-0.09319010695925622</v>
+      </c>
+      <c r="I2">
+        <v>-0.1197907938320106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.04156586135751635</v>
+        <v>0.01461203770857021</v>
       </c>
       <c r="C4">
-        <v>0.07091493384146344</v>
+        <v>-0.1063438136896535</v>
       </c>
       <c r="D4">
-        <v>-0.1015534413906322</v>
+        <v>-0.1292292715751645</v>
       </c>
       <c r="E4">
-        <v>0.0952490224811362</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01515239236113403</v>
+      </c>
+      <c r="F4">
+        <v>-0.09508316695328699</v>
+      </c>
+      <c r="G4">
+        <v>0.007514426311097226</v>
+      </c>
+      <c r="H4">
+        <v>-0.05062915217441326</v>
+      </c>
+      <c r="I4">
+        <v>0.08684998736960529</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02473447520799238</v>
+        <v>0.02823043955340048</v>
       </c>
       <c r="C6">
-        <v>0.01209761066413096</v>
+        <v>-0.03754465089276544</v>
       </c>
       <c r="D6">
-        <v>-0.1295301465209552</v>
+        <v>-0.1216177393819845</v>
       </c>
       <c r="E6">
-        <v>0.06271327614909679</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.06181386740272558</v>
+      </c>
+      <c r="F6">
+        <v>-0.04714931710233628</v>
+      </c>
+      <c r="G6">
+        <v>-0.01251882193139155</v>
+      </c>
+      <c r="H6">
+        <v>-0.04509951156542308</v>
+      </c>
+      <c r="I6">
+        <v>0.0277796138898224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.001082404026668981</v>
+        <v>0.008097833397980175</v>
       </c>
       <c r="C7">
-        <v>0.02196973306437312</v>
+        <v>-0.03753551103633441</v>
       </c>
       <c r="D7">
-        <v>-0.1095416675239305</v>
+        <v>-0.09613610410181665</v>
       </c>
       <c r="E7">
-        <v>0.02249721301132958</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.05556930954349189</v>
+      </c>
+      <c r="F7">
+        <v>-0.008906650582691094</v>
+      </c>
+      <c r="G7">
+        <v>-0.02536201668729236</v>
+      </c>
+      <c r="H7">
+        <v>-0.07545899440555476</v>
+      </c>
+      <c r="I7">
+        <v>0.02254394278620105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.001771052292479557</v>
+        <v>-0.008554428646482037</v>
       </c>
       <c r="C8">
-        <v>0.02587043164451263</v>
+        <v>-0.03556485134029688</v>
       </c>
       <c r="D8">
-        <v>-0.07570933397983193</v>
+        <v>-0.07492783271006845</v>
       </c>
       <c r="E8">
-        <v>0.03867290548549084</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.03882415810866599</v>
+      </c>
+      <c r="F8">
+        <v>-0.05040021825229934</v>
+      </c>
+      <c r="G8">
+        <v>0.05740941861088537</v>
+      </c>
+      <c r="H8">
+        <v>-0.01840264722438754</v>
+      </c>
+      <c r="I8">
+        <v>0.02430614522178955</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.03385234440363035</v>
+        <v>0.01120942258530017</v>
       </c>
       <c r="C9">
-        <v>0.0604242574184574</v>
+        <v>-0.08757943734692575</v>
       </c>
       <c r="D9">
-        <v>-0.1096775223705679</v>
+        <v>-0.1113152216762818</v>
       </c>
       <c r="E9">
-        <v>0.07962386953297336</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.0148268512942615</v>
+      </c>
+      <c r="F9">
+        <v>-0.06313668453207977</v>
+      </c>
+      <c r="G9">
+        <v>-0.02057695038658964</v>
+      </c>
+      <c r="H9">
+        <v>-0.06059424665126658</v>
+      </c>
+      <c r="I9">
+        <v>0.04695590129899439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.1755204583581146</v>
+        <v>0.242306908291646</v>
       </c>
       <c r="C10">
-        <v>-0.1684571595069169</v>
+        <v>0.08653514838835093</v>
       </c>
       <c r="D10">
-        <v>0.01097804573251274</v>
+        <v>0.005210595198747343</v>
       </c>
       <c r="E10">
-        <v>0.04702303447080856</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01241797275925433</v>
+      </c>
+      <c r="F10">
+        <v>-0.04238958174206089</v>
+      </c>
+      <c r="G10">
+        <v>0.001413810908920548</v>
+      </c>
+      <c r="H10">
+        <v>0.03007271273938722</v>
+      </c>
+      <c r="I10">
+        <v>-0.01137311462185145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.01903964193558221</v>
+        <v>0.009592265248324823</v>
       </c>
       <c r="C11">
-        <v>0.04132481692364116</v>
+        <v>-0.05859040269234982</v>
       </c>
       <c r="D11">
-        <v>-0.0463384380840518</v>
+        <v>-0.04090181858689184</v>
       </c>
       <c r="E11">
-        <v>-0.01266457332540097</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.02083195757487492</v>
+      </c>
+      <c r="F11">
+        <v>0.01364815352931091</v>
+      </c>
+      <c r="G11">
+        <v>-0.01942694314581151</v>
+      </c>
+      <c r="H11">
+        <v>-0.04907545038308612</v>
+      </c>
+      <c r="I11">
+        <v>0.04902717781437491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.01848721738650183</v>
+        <v>0.009419390509781585</v>
       </c>
       <c r="C12">
-        <v>0.0409232228230379</v>
+        <v>-0.05035706405697113</v>
       </c>
       <c r="D12">
-        <v>-0.05810354637317357</v>
+        <v>-0.04476457765074847</v>
       </c>
       <c r="E12">
-        <v>-0.002208446086389774</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.0153084083477385</v>
+      </c>
+      <c r="F12">
+        <v>0.01815462551859193</v>
+      </c>
+      <c r="G12">
+        <v>-0.04092573290256878</v>
+      </c>
+      <c r="H12">
+        <v>-0.06336178519945534</v>
+      </c>
+      <c r="I12">
+        <v>0.0201010021023381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.003094118351368769</v>
+        <v>-0.005211084060539467</v>
       </c>
       <c r="C13">
-        <v>0.02359179642793321</v>
+        <v>-0.04920780485971645</v>
       </c>
       <c r="D13">
-        <v>-0.1308994407408059</v>
+        <v>-0.147048513729568</v>
       </c>
       <c r="E13">
-        <v>0.05688789249551115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.04114045556583962</v>
+      </c>
+      <c r="F13">
+        <v>-0.03403320493588036</v>
+      </c>
+      <c r="G13">
+        <v>0.001652664377589511</v>
+      </c>
+      <c r="H13">
+        <v>-0.0825825187557261</v>
+      </c>
+      <c r="I13">
+        <v>-0.06767012844399824</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.00416656825538756</v>
+        <v>0.00195504661221724</v>
       </c>
       <c r="C14">
-        <v>0.01534250182030218</v>
+        <v>-0.03202673172815623</v>
       </c>
       <c r="D14">
-        <v>-0.09017880316380597</v>
+        <v>-0.09851201722666407</v>
       </c>
       <c r="E14">
-        <v>0.02676676056792178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.0510074795604859</v>
+      </c>
+      <c r="F14">
+        <v>-0.03469718836516733</v>
+      </c>
+      <c r="G14">
+        <v>-0.01451809501596127</v>
+      </c>
+      <c r="H14">
+        <v>-0.1397096654955475</v>
+      </c>
+      <c r="I14">
+        <v>0.004930509028031859</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.002807730707634347</v>
+        <v>-0.003411531615990707</v>
       </c>
       <c r="C15">
-        <v>0.009650514648586491</v>
+        <v>-0.0283011360058651</v>
       </c>
       <c r="D15">
-        <v>-0.0352874348537469</v>
+        <v>-0.06257028234056446</v>
       </c>
       <c r="E15">
-        <v>-0.0009088551034389503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.01400361499679335</v>
+      </c>
+      <c r="F15">
+        <v>-0.007865281659596277</v>
+      </c>
+      <c r="G15">
+        <v>0.008717052027713171</v>
+      </c>
+      <c r="H15">
+        <v>-0.04550237002863003</v>
+      </c>
+      <c r="I15">
+        <v>0.01550096278149358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.01755227742141076</v>
+        <v>0.008551781572876838</v>
       </c>
       <c r="C16">
-        <v>0.03695907163875748</v>
+        <v>-0.05071272415120924</v>
       </c>
       <c r="D16">
-        <v>-0.05208019666708581</v>
+        <v>-0.04291032378114713</v>
       </c>
       <c r="E16">
-        <v>-0.002199742202536931</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.0229040169999871</v>
+      </c>
+      <c r="F16">
+        <v>0.009318848878154635</v>
+      </c>
+      <c r="G16">
+        <v>-0.0303773173984413</v>
+      </c>
+      <c r="H16">
+        <v>-0.04470446123877542</v>
+      </c>
+      <c r="I16">
+        <v>0.04057127190433263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.000727776488136311</v>
+        <v>-0.001955961962147301</v>
       </c>
       <c r="C19">
-        <v>0.01810258466286139</v>
+        <v>-0.01566661850639231</v>
       </c>
       <c r="D19">
-        <v>-0.08006869803768744</v>
+        <v>-0.05612215634457447</v>
       </c>
       <c r="E19">
-        <v>0.04094285819990232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.01226873642646123</v>
+      </c>
+      <c r="F19">
+        <v>-0.01453118706341332</v>
+      </c>
+      <c r="G19">
+        <v>0.007559618318289426</v>
+      </c>
+      <c r="H19">
+        <v>-0.05395819866588984</v>
+      </c>
+      <c r="I19">
+        <v>-0.02012533785400474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.002379466382733563</v>
+        <v>0.003739850927191367</v>
       </c>
       <c r="C20">
-        <v>0.02475838468409787</v>
+        <v>-0.04200198106376394</v>
       </c>
       <c r="D20">
-        <v>-0.07389010966327486</v>
+        <v>-0.08655325286327253</v>
       </c>
       <c r="E20">
-        <v>0.04204372942335419</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02480656421900993</v>
+      </c>
+      <c r="F20">
+        <v>-0.02697058829558719</v>
+      </c>
+      <c r="G20">
+        <v>-0.0196217578309542</v>
+      </c>
+      <c r="H20">
+        <v>-0.05615964366734359</v>
+      </c>
+      <c r="I20">
+        <v>0.04926886842294814</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.005226303842544292</v>
+        <v>0.002447357749607701</v>
       </c>
       <c r="C21">
-        <v>0.02606904689820634</v>
+        <v>-0.04529523185958422</v>
       </c>
       <c r="D21">
-        <v>-0.1412971798499515</v>
+        <v>-0.1296766357106122</v>
       </c>
       <c r="E21">
-        <v>0.09976908160440501</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03065697332196788</v>
+      </c>
+      <c r="F21">
+        <v>-0.09430681950680454</v>
+      </c>
+      <c r="G21">
+        <v>-0.01490912740422269</v>
+      </c>
+      <c r="H21">
+        <v>-0.1982741728759789</v>
+      </c>
+      <c r="I21">
+        <v>-0.08928466771107839</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.0009525932150101054</v>
+        <v>-0.01548706194246706</v>
       </c>
       <c r="C22">
-        <v>0.06593546342834793</v>
+        <v>-0.08816202988923574</v>
       </c>
       <c r="D22">
-        <v>-0.2705012678974162</v>
+        <v>-0.2683064002507208</v>
       </c>
       <c r="E22">
-        <v>0.04442551693877534</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.07039029232348856</v>
+      </c>
+      <c r="F22">
+        <v>-0.01489811928939138</v>
+      </c>
+      <c r="G22">
+        <v>0.4246865650860916</v>
+      </c>
+      <c r="H22">
+        <v>0.3491659329446613</v>
+      </c>
+      <c r="I22">
+        <v>-0.04051100508362902</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.001252360205912834</v>
+        <v>-0.01231656188260394</v>
       </c>
       <c r="C23">
-        <v>0.06641062998267414</v>
+        <v>-0.08995571375224298</v>
       </c>
       <c r="D23">
-        <v>-0.2699957627930603</v>
+        <v>-0.2710205014138649</v>
       </c>
       <c r="E23">
-        <v>0.04464691653175785</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.06545562675754142</v>
+      </c>
+      <c r="F23">
+        <v>-0.01793294918820268</v>
+      </c>
+      <c r="G23">
+        <v>0.4111569862752888</v>
+      </c>
+      <c r="H23">
+        <v>0.3350659597251256</v>
+      </c>
+      <c r="I23">
+        <v>-0.04134251926103141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.02304703079990339</v>
+        <v>0.009154849420497777</v>
       </c>
       <c r="C24">
-        <v>0.05692751215072121</v>
+        <v>-0.06710133598573335</v>
       </c>
       <c r="D24">
-        <v>-0.06040824384475494</v>
+        <v>-0.04593604858953106</v>
       </c>
       <c r="E24">
-        <v>0.0001174964025898863</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.02922215490152501</v>
+      </c>
+      <c r="F24">
+        <v>0.005560788171241471</v>
+      </c>
+      <c r="G24">
+        <v>-0.02117076011655744</v>
+      </c>
+      <c r="H24">
+        <v>-0.07105063290911187</v>
+      </c>
+      <c r="I24">
+        <v>0.03661570304844203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.02376099385680071</v>
+        <v>0.01341497440538163</v>
       </c>
       <c r="C25">
-        <v>0.04809935455880434</v>
+        <v>-0.06151298430501966</v>
       </c>
       <c r="D25">
-        <v>-0.05617286067040696</v>
+        <v>-0.04923062241709853</v>
       </c>
       <c r="E25">
-        <v>0.006264904195097704</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.0146709208634703</v>
+      </c>
+      <c r="F25">
+        <v>0.005832387504076038</v>
+      </c>
+      <c r="G25">
+        <v>-0.02091679598965304</v>
+      </c>
+      <c r="H25">
+        <v>-0.03673371504705974</v>
+      </c>
+      <c r="I25">
+        <v>0.03017321025305023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.008945224230884983</v>
+        <v>0.01611530487268193</v>
       </c>
       <c r="C26">
-        <v>0.0145546173457942</v>
+        <v>-0.02939365134003798</v>
       </c>
       <c r="D26">
-        <v>-0.07766986967390925</v>
+        <v>-0.06745471438439564</v>
       </c>
       <c r="E26">
-        <v>0.03382764860691711</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.04125995409432534</v>
+      </c>
+      <c r="F26">
+        <v>-0.04464199667972003</v>
+      </c>
+      <c r="G26">
+        <v>-0.01952739035390123</v>
+      </c>
+      <c r="H26">
+        <v>-0.1026169360104197</v>
+      </c>
+      <c r="I26">
+        <v>0.005867074083944477</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2607673076997194</v>
+        <v>0.3211792047493819</v>
       </c>
       <c r="C28">
-        <v>-0.1930165596534892</v>
+        <v>0.08452506933236555</v>
       </c>
       <c r="D28">
-        <v>-0.004720710430385373</v>
+        <v>0.01874213497567675</v>
       </c>
       <c r="E28">
-        <v>0.05309558465327312</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05038692069041716</v>
+      </c>
+      <c r="F28">
+        <v>-0.04917955589136785</v>
+      </c>
+      <c r="G28">
+        <v>0.05976563628523137</v>
+      </c>
+      <c r="H28">
+        <v>-0.009377874607032769</v>
+      </c>
+      <c r="I28">
+        <v>-0.006909507250045183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.0003831269810576691</v>
+        <v>0.0007054600182571204</v>
       </c>
       <c r="C29">
-        <v>0.01971987499353671</v>
+        <v>-0.03819076044025629</v>
       </c>
       <c r="D29">
-        <v>-0.089249661425559</v>
+        <v>-0.1016090123712202</v>
       </c>
       <c r="E29">
-        <v>0.03645702209564013</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.05693186064460017</v>
+      </c>
+      <c r="F29">
+        <v>-0.03901435764642112</v>
+      </c>
+      <c r="G29">
+        <v>-0.02800371751600867</v>
+      </c>
+      <c r="H29">
+        <v>-0.1463991270107733</v>
+      </c>
+      <c r="I29">
+        <v>0.01664079266438794</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.02425259960693057</v>
+        <v>0.01287457713820237</v>
       </c>
       <c r="C30">
-        <v>0.0618520361953448</v>
+        <v>-0.0904170067744981</v>
       </c>
       <c r="D30">
-        <v>-0.1487221234448453</v>
+        <v>-0.1385502276279345</v>
       </c>
       <c r="E30">
-        <v>0.04322552653574218</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05489355211711171</v>
+      </c>
+      <c r="F30">
+        <v>-0.02561298500467517</v>
+      </c>
+      <c r="G30">
+        <v>0.01602376470793667</v>
+      </c>
+      <c r="H30">
+        <v>-0.05283679884506468</v>
+      </c>
+      <c r="I30">
+        <v>0.03489045486154981</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.03490828665050854</v>
+        <v>0.006375365398155691</v>
       </c>
       <c r="C31">
-        <v>0.08446499846257771</v>
+        <v>-0.09424595869205564</v>
       </c>
       <c r="D31">
-        <v>-0.06301938946573148</v>
+        <v>-0.03952923050209781</v>
       </c>
       <c r="E31">
-        <v>0.02079057886180267</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02171493646839472</v>
+      </c>
+      <c r="F31">
+        <v>-0.01472525010471401</v>
+      </c>
+      <c r="G31">
+        <v>-0.009674205341099622</v>
+      </c>
+      <c r="H31">
+        <v>-0.04728941469270243</v>
+      </c>
+      <c r="I31">
+        <v>0.01341155949106982</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.01482202950258105</v>
+        <v>0.00859263505231719</v>
       </c>
       <c r="C32">
-        <v>0.03327764913880788</v>
+        <v>-0.04771981640524755</v>
       </c>
       <c r="D32">
-        <v>-0.0625813738617341</v>
+        <v>-0.09140334705133371</v>
       </c>
       <c r="E32">
-        <v>0.0585683038673766</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.002612343301851297</v>
+      </c>
+      <c r="F32">
+        <v>-0.05061235557810795</v>
+      </c>
+      <c r="G32">
+        <v>0.006532026880784764</v>
+      </c>
+      <c r="H32">
+        <v>-0.05176603434064379</v>
+      </c>
+      <c r="I32">
+        <v>-0.05140305437199797</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.006505680312925816</v>
+        <v>0.003637423399596239</v>
       </c>
       <c r="C33">
-        <v>0.04020197848590106</v>
+        <v>-0.06063206209812832</v>
       </c>
       <c r="D33">
-        <v>-0.1215062793667857</v>
+        <v>-0.1191764459852864</v>
       </c>
       <c r="E33">
-        <v>0.04975312651836387</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03139432929960254</v>
+      </c>
+      <c r="F33">
+        <v>-0.02602062904299411</v>
+      </c>
+      <c r="G33">
+        <v>-0.0124377506614632</v>
+      </c>
+      <c r="H33">
+        <v>-0.06279087030703069</v>
+      </c>
+      <c r="I33">
+        <v>0.02158035385984346</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.02054574176038521</v>
+        <v>0.006855565147991753</v>
       </c>
       <c r="C34">
-        <v>0.05881900242874306</v>
+        <v>-0.06205776268919975</v>
       </c>
       <c r="D34">
-        <v>-0.05565743329430101</v>
+        <v>-0.02620819355933011</v>
       </c>
       <c r="E34">
-        <v>-0.04104306352560821</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02867463782774245</v>
+      </c>
+      <c r="F34">
+        <v>0.04098711094443561</v>
+      </c>
+      <c r="G34">
+        <v>-0.02216602535772803</v>
+      </c>
+      <c r="H34">
+        <v>-0.0503820732289171</v>
+      </c>
+      <c r="I34">
+        <v>0.0185538188452829</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.00239842348047811</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.01189156011352315</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.03422022996753841</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.00443897715454592</v>
+      </c>
+      <c r="F35">
+        <v>-0.01825907185024775</v>
+      </c>
+      <c r="G35">
+        <v>-0.01326631425791486</v>
+      </c>
+      <c r="H35">
+        <v>-0.05606581648456706</v>
+      </c>
+      <c r="I35">
+        <v>0.02145416920002785</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.006163006979111611</v>
+        <v>0.01093711858547904</v>
       </c>
       <c r="C36">
-        <v>0.006253739269439486</v>
+        <v>-0.02241304938012335</v>
       </c>
       <c r="D36">
-        <v>-0.07493308338660418</v>
+        <v>-0.07436390444683084</v>
       </c>
       <c r="E36">
-        <v>0.05524579712768313</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.0291208509265649</v>
+      </c>
+      <c r="F36">
+        <v>-0.05040903814599421</v>
+      </c>
+      <c r="G36">
+        <v>-0.009282479061883651</v>
+      </c>
+      <c r="H36">
+        <v>-0.06897908455691087</v>
+      </c>
+      <c r="I36">
+        <v>0.007889754477482046</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.005477028601890062</v>
+        <v>0.0113976863790422</v>
       </c>
       <c r="C38">
-        <v>0.007294422555838956</v>
+        <v>-0.02588138662399036</v>
       </c>
       <c r="D38">
-        <v>-0.08170760358807796</v>
+        <v>-0.08615611257043757</v>
       </c>
       <c r="E38">
-        <v>0.01429916934542625</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.008994531155520546</v>
+      </c>
+      <c r="F38">
+        <v>-0.00438855626117594</v>
+      </c>
+      <c r="G38">
+        <v>0.0165492277478744</v>
+      </c>
+      <c r="H38">
+        <v>-0.07362955934484425</v>
+      </c>
+      <c r="I38">
+        <v>0.03428598409897237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.01627599793337501</v>
+        <v>0.002861636834012246</v>
       </c>
       <c r="C39">
-        <v>0.05838259743813531</v>
+        <v>-0.0786250396924229</v>
       </c>
       <c r="D39">
-        <v>-0.1084283967286741</v>
+        <v>-0.08843090685826271</v>
       </c>
       <c r="E39">
-        <v>0.0007909281400824725</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.05128606275945665</v>
+      </c>
+      <c r="F39">
+        <v>0.007882948515113748</v>
+      </c>
+      <c r="G39">
+        <v>-0.03093179643455141</v>
+      </c>
+      <c r="H39">
+        <v>-0.09950685765240626</v>
+      </c>
+      <c r="I39">
+        <v>0.0385691699642139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.01560719757409174</v>
+        <v>0.01186286601520624</v>
       </c>
       <c r="C40">
-        <v>0.02208144531386601</v>
+        <v>-0.03818024484536965</v>
       </c>
       <c r="D40">
-        <v>-0.1158923687746007</v>
+        <v>-0.09808428910117861</v>
       </c>
       <c r="E40">
-        <v>0.00641722033421404</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.04160029514044987</v>
+      </c>
+      <c r="F40">
+        <v>0.00976072303005353</v>
+      </c>
+      <c r="G40">
+        <v>0.04960864824221432</v>
+      </c>
+      <c r="H40">
+        <v>-0.115645300620204</v>
+      </c>
+      <c r="I40">
+        <v>-0.05022155456344041</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.01011887264934542</v>
+        <v>0.01466789539186526</v>
       </c>
       <c r="C41">
-        <v>0.003860818575060887</v>
+        <v>-0.01963812465649492</v>
       </c>
       <c r="D41">
-        <v>-0.03340474433626675</v>
+        <v>-0.04439603370444672</v>
       </c>
       <c r="E41">
-        <v>0.02921496598063946</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.005293688180091683</v>
+      </c>
+      <c r="F41">
+        <v>-0.02338825281214278</v>
+      </c>
+      <c r="G41">
+        <v>-0.004422305884451285</v>
+      </c>
+      <c r="H41">
+        <v>-0.04784441317209535</v>
+      </c>
+      <c r="I41">
+        <v>0.01703495732362538</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.001203562775617762</v>
+        <v>0.008160068504913125</v>
       </c>
       <c r="C43">
-        <v>0.003274732411505632</v>
+        <v>-0.01578984312289223</v>
       </c>
       <c r="D43">
-        <v>-0.05078128693716483</v>
+        <v>-0.05281725064653125</v>
       </c>
       <c r="E43">
-        <v>0.02443865054281975</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01226913015544792</v>
+      </c>
+      <c r="F43">
+        <v>-0.02118372789845686</v>
+      </c>
+      <c r="G43">
+        <v>-0.004179883142955181</v>
+      </c>
+      <c r="H43">
+        <v>-0.05737833072271401</v>
+      </c>
+      <c r="I43">
+        <v>0.03621708058645613</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.01698402886490955</v>
+        <v>0.01100112999785403</v>
       </c>
       <c r="C44">
-        <v>0.02395208389797867</v>
+        <v>-0.04910894114701185</v>
       </c>
       <c r="D44">
-        <v>-0.08291643139705236</v>
+        <v>-0.1008599262341737</v>
       </c>
       <c r="E44">
-        <v>0.0520625665772619</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.03714974588424311</v>
+      </c>
+      <c r="F44">
+        <v>-0.03618020520392722</v>
+      </c>
+      <c r="G44">
+        <v>0.02466719275588942</v>
+      </c>
+      <c r="H44">
+        <v>-0.05536107751401429</v>
+      </c>
+      <c r="I44">
+        <v>0.03312585501885865</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.007141425838261515</v>
+        <v>-0.001368840103472028</v>
       </c>
       <c r="C46">
-        <v>0.02906687721761174</v>
+        <v>-0.04265173920458672</v>
       </c>
       <c r="D46">
-        <v>-0.08131549971332044</v>
+        <v>-0.07123659598238991</v>
       </c>
       <c r="E46">
-        <v>0.02778877800305209</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.04275666665618046</v>
+      </c>
+      <c r="F46">
+        <v>-0.03160290172426241</v>
+      </c>
+      <c r="G46">
+        <v>-0.008036142626721553</v>
+      </c>
+      <c r="H46">
+        <v>-0.1332301918374156</v>
+      </c>
+      <c r="I46">
+        <v>0.04054363543235785</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.07767224303701599</v>
+        <v>0.02914464184447397</v>
       </c>
       <c r="C47">
-        <v>0.1068181454433632</v>
+        <v>-0.1279784765776802</v>
       </c>
       <c r="D47">
-        <v>-0.05435825394125237</v>
+        <v>-0.02298987205240568</v>
       </c>
       <c r="E47">
-        <v>0.02510862474925454</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.009651083012419204</v>
+      </c>
+      <c r="F47">
+        <v>0.003167507983472968</v>
+      </c>
+      <c r="G47">
+        <v>-0.04881816015380197</v>
+      </c>
+      <c r="H47">
+        <v>-0.05356348496761785</v>
+      </c>
+      <c r="I47">
+        <v>0.001769643649994875</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.009421228167925779</v>
+        <v>0.01371014842101751</v>
       </c>
       <c r="C48">
-        <v>0.01625821143094156</v>
+        <v>-0.03364147942573625</v>
       </c>
       <c r="D48">
-        <v>-0.07282465704074108</v>
+        <v>-0.07714035523409664</v>
       </c>
       <c r="E48">
-        <v>0.05906531494866432</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.02151325123374924</v>
+      </c>
+      <c r="F48">
+        <v>-0.05844577039778928</v>
+      </c>
+      <c r="G48">
+        <v>-0.01044787096096025</v>
+      </c>
+      <c r="H48">
+        <v>-0.1112778454813637</v>
+      </c>
+      <c r="I48">
+        <v>0.02223672040955812</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.03183064890611809</v>
+        <v>0.01033892222184308</v>
       </c>
       <c r="C50">
-        <v>0.05810405681293291</v>
+        <v>-0.07560069141363762</v>
       </c>
       <c r="D50">
-        <v>-0.05873827206137322</v>
+        <v>-0.04904375161110149</v>
       </c>
       <c r="E50">
-        <v>0.01403548459157754</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01646953682763659</v>
+      </c>
+      <c r="F50">
+        <v>-0.008496161501443592</v>
+      </c>
+      <c r="G50">
+        <v>0.001022148738088839</v>
+      </c>
+      <c r="H50">
+        <v>-0.03637786688834017</v>
+      </c>
+      <c r="I50">
+        <v>0.02275162924940035</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.002066309594578245</v>
+        <v>-0.001276194204636816</v>
       </c>
       <c r="C51">
-        <v>0.005277247337877486</v>
+        <v>-0.01713721715985803</v>
       </c>
       <c r="D51">
-        <v>-0.05389557737802252</v>
+        <v>-0.05549665191912835</v>
       </c>
       <c r="E51">
-        <v>0.01841133430253842</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.03636332729380046</v>
+      </c>
+      <c r="F51">
+        <v>-0.03785871245001199</v>
+      </c>
+      <c r="G51">
+        <v>0.011794823832792</v>
+      </c>
+      <c r="H51">
+        <v>-0.05443154830213425</v>
+      </c>
+      <c r="I51">
+        <v>-0.01530104827362211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1060134644052507</v>
+        <v>0.04963811887064098</v>
       </c>
       <c r="C53">
-        <v>0.1259234062188891</v>
+        <v>-0.1578080945118401</v>
       </c>
       <c r="D53">
-        <v>-0.00208228696093908</v>
+        <v>0.02162374050640509</v>
       </c>
       <c r="E53">
-        <v>0.05351744087528239</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02803919522291441</v>
+      </c>
+      <c r="F53">
+        <v>-0.04988151795813224</v>
+      </c>
+      <c r="G53">
+        <v>-0.00146113629657158</v>
+      </c>
+      <c r="H53">
+        <v>-0.009925357253047998</v>
+      </c>
+      <c r="I53">
+        <v>0.01669337195423221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.009695281631532516</v>
+        <v>0.009420180607788884</v>
       </c>
       <c r="C54">
-        <v>0.02034091466808973</v>
+        <v>-0.03845501801046707</v>
       </c>
       <c r="D54">
-        <v>-0.08728584062990993</v>
+        <v>-0.07771047366475478</v>
       </c>
       <c r="E54">
-        <v>0.01546517463638825</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.02008623085905568</v>
+      </c>
+      <c r="F54">
+        <v>-0.00387263937097135</v>
+      </c>
+      <c r="G54">
+        <v>0.006157219317500872</v>
+      </c>
+      <c r="H54">
+        <v>-0.08276252939654528</v>
+      </c>
+      <c r="I54">
+        <v>0.05908497993266095</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.09339931827424204</v>
+        <v>0.0387458649748945</v>
       </c>
       <c r="C55">
-        <v>0.1071411308290739</v>
+        <v>-0.1319577271864281</v>
       </c>
       <c r="D55">
-        <v>-0.009353527003093231</v>
+        <v>0.03084125651774583</v>
       </c>
       <c r="E55">
-        <v>0.008446090467101852</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.00714568854633465</v>
+      </c>
+      <c r="F55">
+        <v>-0.01156478248927581</v>
+      </c>
+      <c r="G55">
+        <v>-0.0006582117750684031</v>
+      </c>
+      <c r="H55">
+        <v>-0.01499546502019541</v>
+      </c>
+      <c r="I55">
+        <v>-0.008556261768550455</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1331307259295606</v>
+        <v>0.05377923427858954</v>
       </c>
       <c r="C56">
-        <v>0.1467267046530353</v>
+        <v>-0.1925775385819113</v>
       </c>
       <c r="D56">
-        <v>-0.00775915240461154</v>
+        <v>0.02952375563845815</v>
       </c>
       <c r="E56">
-        <v>0.004490144097748245</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.02891458534438689</v>
+      </c>
+      <c r="F56">
+        <v>-0.01592361657845312</v>
+      </c>
+      <c r="G56">
+        <v>0.04663168201627648</v>
+      </c>
+      <c r="H56">
+        <v>-0.01973369552920177</v>
+      </c>
+      <c r="I56">
+        <v>-0.01526580977868109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.00957144965410248</v>
+        <v>0.001738148114638815</v>
       </c>
       <c r="C58">
-        <v>0.009796824864912925</v>
+        <v>-0.05615218676135335</v>
       </c>
       <c r="D58">
-        <v>-0.1988123848659703</v>
+        <v>-0.2854924891934073</v>
       </c>
       <c r="E58">
-        <v>0.1145041044643115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.02429871328715651</v>
+      </c>
+      <c r="F58">
+        <v>-0.1154527088776043</v>
+      </c>
+      <c r="G58">
+        <v>0.1620642317779603</v>
+      </c>
+      <c r="H58">
+        <v>0.07473100001689896</v>
+      </c>
+      <c r="I58">
+        <v>0.05416570284161076</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1835109183375072</v>
+        <v>0.2557956641619477</v>
       </c>
       <c r="C59">
-        <v>-0.145262616588183</v>
+        <v>0.05640686909420195</v>
       </c>
       <c r="D59">
-        <v>-0.03553714175377939</v>
+        <v>-0.0558572213301333</v>
       </c>
       <c r="E59">
-        <v>0.03478930422229141</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.0208114814600452</v>
+      </c>
+      <c r="F59">
+        <v>-0.02406607169567547</v>
+      </c>
+      <c r="G59">
+        <v>0.006360941160442814</v>
+      </c>
+      <c r="H59">
+        <v>-0.00546611171676495</v>
+      </c>
+      <c r="I59">
+        <v>-0.05744870196989368</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1822746672331708</v>
+        <v>0.1454092665926941</v>
       </c>
       <c r="C60">
-        <v>0.1040722309497077</v>
+        <v>-0.1761034274594179</v>
       </c>
       <c r="D60">
-        <v>-0.2401951394911322</v>
+        <v>-0.09135018897446597</v>
       </c>
       <c r="E60">
-        <v>-0.08604000492520893</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1582063947877733</v>
+      </c>
+      <c r="F60">
+        <v>0.225236365369396</v>
+      </c>
+      <c r="G60">
+        <v>-0.2130114601316924</v>
+      </c>
+      <c r="H60">
+        <v>0.2559853074852502</v>
+      </c>
+      <c r="I60">
+        <v>-0.1144720242550485</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.02470605421042955</v>
+        <v>0.01030192370914192</v>
       </c>
       <c r="C61">
-        <v>0.05275997338849901</v>
+        <v>-0.07464682755055072</v>
       </c>
       <c r="D61">
-        <v>-0.08884885339354831</v>
+        <v>-0.07207613046194698</v>
       </c>
       <c r="E61">
-        <v>0.001358731201856438</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03874030083659045</v>
+      </c>
+      <c r="F61">
+        <v>0.01540236653235067</v>
+      </c>
+      <c r="G61">
+        <v>-0.04353103311657422</v>
+      </c>
+      <c r="H61">
+        <v>-0.0817897988635734</v>
+      </c>
+      <c r="I61">
+        <v>0.02869760265513661</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.006701002152412726</v>
+        <v>0.00833259926707732</v>
       </c>
       <c r="C63">
-        <v>0.02319272580119962</v>
+        <v>-0.03717337769495414</v>
       </c>
       <c r="D63">
-        <v>-0.09401519496744656</v>
+        <v>-0.06753082814263467</v>
       </c>
       <c r="E63">
-        <v>0.03212326879794203</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.05867069874637618</v>
+      </c>
+      <c r="F63">
+        <v>-0.02508785649426561</v>
+      </c>
+      <c r="G63">
+        <v>-0.01485929696211845</v>
+      </c>
+      <c r="H63">
+        <v>-0.07191002949695101</v>
+      </c>
+      <c r="I63">
+        <v>0.02892030738476022</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.05466063095082868</v>
+        <v>0.01441354325664945</v>
       </c>
       <c r="C64">
-        <v>0.08703322216689727</v>
+        <v>-0.105409545643717</v>
       </c>
       <c r="D64">
-        <v>-0.009149597100640776</v>
+        <v>-0.004431937307806794</v>
       </c>
       <c r="E64">
-        <v>0.0117351091676302</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02357736061056187</v>
+      </c>
+      <c r="F64">
+        <v>-0.01160247832007935</v>
+      </c>
+      <c r="G64">
+        <v>-0.04802676086471343</v>
+      </c>
+      <c r="H64">
+        <v>-0.06129647191966014</v>
+      </c>
+      <c r="I64">
+        <v>0.05185117085148754</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.02533069367416993</v>
+        <v>0.01991995414023383</v>
       </c>
       <c r="C65">
-        <v>0.01551482176036927</v>
+        <v>-0.04466788729571645</v>
       </c>
       <c r="D65">
-        <v>-0.1076526392073439</v>
+        <v>-0.1135858429371252</v>
       </c>
       <c r="E65">
-        <v>0.02448107858379147</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.04643559854061551</v>
+      </c>
+      <c r="F65">
+        <v>0.00673668903875481</v>
+      </c>
+      <c r="G65">
+        <v>-0.02836323962529345</v>
+      </c>
+      <c r="H65">
+        <v>-0.01059588557944583</v>
+      </c>
+      <c r="I65">
+        <v>0.06431459451870866</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.02068125489408613</v>
+        <v>0.0001743762154882936</v>
       </c>
       <c r="C66">
-        <v>0.06802458010479792</v>
+        <v>-0.0975873890860121</v>
       </c>
       <c r="D66">
-        <v>-0.1203762789390574</v>
+        <v>-0.1183799972913369</v>
       </c>
       <c r="E66">
-        <v>0.000296039458365633</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.04361247623867859</v>
+      </c>
+      <c r="F66">
+        <v>0.01046033104646834</v>
+      </c>
+      <c r="G66">
+        <v>-0.0003044390432771527</v>
+      </c>
+      <c r="H66">
+        <v>-0.06777954098695169</v>
+      </c>
+      <c r="I66">
+        <v>0.03815998591520275</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.02393261785812548</v>
+        <v>0.02141339513337358</v>
       </c>
       <c r="C67">
-        <v>0.02048941331633625</v>
+        <v>-0.03711867702047873</v>
       </c>
       <c r="D67">
-        <v>-0.04544772164087509</v>
+        <v>-0.04189607236034623</v>
       </c>
       <c r="E67">
-        <v>-0.01703078685891809</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.01349206717712773</v>
+      </c>
+      <c r="F67">
+        <v>0.02609961589175064</v>
+      </c>
+      <c r="G67">
+        <v>0.0006036344604087491</v>
+      </c>
+      <c r="H67">
+        <v>-0.07008648802728361</v>
+      </c>
+      <c r="I67">
+        <v>0.03109891083738244</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2059395714256793</v>
+        <v>0.2763141111267695</v>
       </c>
       <c r="C68">
-        <v>-0.153753741879053</v>
+        <v>0.06247031754375096</v>
       </c>
       <c r="D68">
-        <v>-0.03310957849277815</v>
+        <v>-0.03075975088225955</v>
       </c>
       <c r="E68">
-        <v>0.02268845006810698</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.002115421228079644</v>
+      </c>
+      <c r="F68">
+        <v>-0.02914105030395111</v>
+      </c>
+      <c r="G68">
+        <v>0.0740862451386077</v>
+      </c>
+      <c r="H68">
+        <v>0.04250222707118814</v>
+      </c>
+      <c r="I68">
+        <v>-0.02224653443193905</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.05297543052046881</v>
+        <v>0.01443817839307379</v>
       </c>
       <c r="C69">
-        <v>0.1162997496902011</v>
+        <v>-0.1179665913354283</v>
       </c>
       <c r="D69">
-        <v>-0.07849813990300132</v>
+        <v>-0.02918265534648864</v>
       </c>
       <c r="E69">
-        <v>0.01913755807466147</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.009529693290814678</v>
+      </c>
+      <c r="F69">
+        <v>0.008808665127762213</v>
+      </c>
+      <c r="G69">
+        <v>-0.03042010009042477</v>
+      </c>
+      <c r="H69">
+        <v>-0.0414002179163615</v>
+      </c>
+      <c r="I69">
+        <v>0.005939053752664177</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2165946142607333</v>
+        <v>0.2778357507394766</v>
       </c>
       <c r="C71">
-        <v>-0.1782242797909327</v>
+        <v>0.07569849185240582</v>
       </c>
       <c r="D71">
-        <v>-0.01629378548328553</v>
+        <v>-0.01889596404420264</v>
       </c>
       <c r="E71">
-        <v>0.01512758156039693</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.002228531630340377</v>
+      </c>
+      <c r="F71">
+        <v>-0.02051522742718946</v>
+      </c>
+      <c r="G71">
+        <v>0.0363172332104944</v>
+      </c>
+      <c r="H71">
+        <v>-0.02046934912785462</v>
+      </c>
+      <c r="I71">
+        <v>-0.008515557580937385</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1015098861711509</v>
+        <v>0.05278079086072885</v>
       </c>
       <c r="C72">
-        <v>0.07766066316844406</v>
+        <v>-0.1285423799354431</v>
       </c>
       <c r="D72">
-        <v>-0.1233076103547865</v>
+        <v>-0.05920084429078975</v>
       </c>
       <c r="E72">
-        <v>-0.01337412589413191</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.07033468169340272</v>
+      </c>
+      <c r="F72">
+        <v>0.02826753076290999</v>
+      </c>
+      <c r="G72">
+        <v>-0.04830592196078703</v>
+      </c>
+      <c r="H72">
+        <v>-0.04120360926564808</v>
+      </c>
+      <c r="I72">
+        <v>0.04036735699590673</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1704991605230104</v>
+        <v>0.1349219000466186</v>
       </c>
       <c r="C73">
-        <v>0.07066827789437989</v>
+        <v>-0.1521348368243029</v>
       </c>
       <c r="D73">
-        <v>-0.3101517734240519</v>
+        <v>-0.09359099295675367</v>
       </c>
       <c r="E73">
-        <v>-0.1418505607263809</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2811331939769846</v>
+      </c>
+      <c r="F73">
+        <v>0.3119505544006737</v>
+      </c>
+      <c r="G73">
+        <v>-0.3762760035041905</v>
+      </c>
+      <c r="H73">
+        <v>0.2080970680864672</v>
+      </c>
+      <c r="I73">
+        <v>-0.0120444798334056</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1051398034345123</v>
+        <v>0.04724304432262598</v>
       </c>
       <c r="C74">
-        <v>0.1158321664994357</v>
+        <v>-0.1445982300933989</v>
       </c>
       <c r="D74">
-        <v>0.02216323208848984</v>
+        <v>0.04116196319256445</v>
       </c>
       <c r="E74">
-        <v>0.0372991924448849</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01069322403042706</v>
+      </c>
+      <c r="F74">
+        <v>-0.03651065000566287</v>
+      </c>
+      <c r="G74">
+        <v>-0.005103591708012987</v>
+      </c>
+      <c r="H74">
+        <v>0.01468185324246256</v>
+      </c>
+      <c r="I74">
+        <v>-0.01057912417827826</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.229997944395831</v>
+        <v>0.09943342993256626</v>
       </c>
       <c r="C75">
-        <v>0.2029351773506672</v>
+        <v>-0.2702337073552558</v>
       </c>
       <c r="D75">
-        <v>0.09863912699589152</v>
+        <v>0.1306096806081756</v>
       </c>
       <c r="E75">
-        <v>-0.0560385610614641</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.09387905253302728</v>
+      </c>
+      <c r="F75">
+        <v>0.02639064660759217</v>
+      </c>
+      <c r="G75">
+        <v>0.101965272935173</v>
+      </c>
+      <c r="H75">
+        <v>-0.03533040002681952</v>
+      </c>
+      <c r="I75">
+        <v>0.002919555024609885</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1346402522838062</v>
+        <v>0.05538731834355092</v>
       </c>
       <c r="C76">
-        <v>0.1400859670275216</v>
+        <v>-0.1816074913352493</v>
       </c>
       <c r="D76">
-        <v>-0.006845150002916619</v>
+        <v>0.04374372484876867</v>
       </c>
       <c r="E76">
-        <v>-0.001862580366624052</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02037034733078012</v>
+      </c>
+      <c r="F76">
+        <v>-0.002932624305403259</v>
+      </c>
+      <c r="G76">
+        <v>0.0329489083318266</v>
+      </c>
+      <c r="H76">
+        <v>-0.03968952014685719</v>
+      </c>
+      <c r="I76">
+        <v>0.003308065476731512</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.01914030088147629</v>
+        <v>-0.001732294017355952</v>
       </c>
       <c r="C77">
-        <v>0.06525144138796929</v>
+        <v>-0.1054670534760912</v>
       </c>
       <c r="D77">
-        <v>0.06142298734175895</v>
+        <v>-0.3273580012380292</v>
       </c>
       <c r="E77">
-        <v>0.07328984805881091</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.8419276082385393</v>
+      </c>
+      <c r="F77">
+        <v>0.2117856540925576</v>
+      </c>
+      <c r="G77">
+        <v>-0.1775626121219056</v>
+      </c>
+      <c r="H77">
+        <v>0.1707553813319806</v>
+      </c>
+      <c r="I77">
+        <v>0.04964399854867586</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.02782015300207144</v>
+        <v>0.01391661533762372</v>
       </c>
       <c r="C78">
-        <v>0.07063692567610247</v>
+        <v>-0.09244155541897919</v>
       </c>
       <c r="D78">
-        <v>-0.1378831827037775</v>
+        <v>-0.1100487860888079</v>
       </c>
       <c r="E78">
-        <v>0.05866229384596942</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.06660892199929278</v>
+      </c>
+      <c r="F78">
+        <v>-0.04317775360141077</v>
+      </c>
+      <c r="G78">
+        <v>0.03393549440036571</v>
+      </c>
+      <c r="H78">
+        <v>-0.03790360452538045</v>
+      </c>
+      <c r="I78">
+        <v>-0.06053903893809353</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.09708939932858907</v>
+        <v>0.03378477051981063</v>
       </c>
       <c r="C79">
-        <v>0.1863787224530421</v>
+        <v>-0.1972725347767356</v>
       </c>
       <c r="D79">
-        <v>0.2383517064848998</v>
+        <v>0.08493341344883672</v>
       </c>
       <c r="E79">
-        <v>0.8423408249242125</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.05434486435035085</v>
+      </c>
+      <c r="F79">
+        <v>-0.7797257165382822</v>
+      </c>
+      <c r="G79">
+        <v>-0.3516814815572708</v>
+      </c>
+      <c r="H79">
+        <v>0.3459421558588339</v>
+      </c>
+      <c r="I79">
+        <v>0.02824446586166365</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.003997198456837324</v>
+        <v>0.004238904093406312</v>
       </c>
       <c r="C80">
-        <v>0.04401018485908386</v>
+        <v>-0.04469189601160702</v>
       </c>
       <c r="D80">
-        <v>-0.05131087083792574</v>
+        <v>-0.03949320818074423</v>
       </c>
       <c r="E80">
-        <v>0.0009068853389720047</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04316640238984242</v>
+      </c>
+      <c r="F80">
+        <v>0.0007039678698881336</v>
+      </c>
+      <c r="G80">
+        <v>-0.007593672387214202</v>
+      </c>
+      <c r="H80">
+        <v>-0.02730211219246136</v>
+      </c>
+      <c r="I80">
+        <v>-0.08310079258564092</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1168085696651463</v>
+        <v>0.03931383549683817</v>
       </c>
       <c r="C81">
-        <v>0.136254030837352</v>
+        <v>-0.1665144959250639</v>
       </c>
       <c r="D81">
-        <v>0.08047595509232895</v>
+        <v>0.08173742466398391</v>
       </c>
       <c r="E81">
-        <v>0.02984662953666888</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.0482320036030767</v>
+      </c>
+      <c r="F81">
+        <v>-0.06363853189982203</v>
+      </c>
+      <c r="G81">
+        <v>0.04517491090302492</v>
+      </c>
+      <c r="H81">
+        <v>-0.08088293750619832</v>
+      </c>
+      <c r="I81">
+        <v>-0.02229559973029492</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.2457686918190762</v>
+        <v>0.08293388856704664</v>
       </c>
       <c r="C82">
-        <v>0.2993141435899332</v>
+        <v>-0.3203321157165802</v>
       </c>
       <c r="D82">
-        <v>0.1826648927719974</v>
+        <v>0.2432107351203908</v>
       </c>
       <c r="E82">
-        <v>-0.1972905488963231</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.06718224223104978</v>
+      </c>
+      <c r="F82">
+        <v>0.1117487748470522</v>
+      </c>
+      <c r="G82">
+        <v>0.09482424966816369</v>
+      </c>
+      <c r="H82">
+        <v>-0.1143907959560522</v>
+      </c>
+      <c r="I82">
+        <v>-0.01323473484083887</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.0100214733140093</v>
+        <v>-0.01567319265559088</v>
       </c>
       <c r="C83">
-        <v>0.04959467525007766</v>
+        <v>-0.02431986152087288</v>
       </c>
       <c r="D83">
-        <v>0.009072294511988462</v>
+        <v>-0.02720515335112882</v>
       </c>
       <c r="E83">
-        <v>0.03942516193444971</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.08639337677130561</v>
+      </c>
+      <c r="F83">
+        <v>-0.04998490631302004</v>
+      </c>
+      <c r="G83">
+        <v>-0.0337204479600041</v>
+      </c>
+      <c r="H83">
+        <v>-0.109109866302467</v>
+      </c>
+      <c r="I83">
+        <v>-0.9066285920771938</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.0008056940049961793</v>
+        <v>-0.00302012791476408</v>
       </c>
       <c r="C84">
-        <v>-0.0001532898987487788</v>
+        <v>-0.01706256434628043</v>
       </c>
       <c r="D84">
-        <v>-0.008785389135445231</v>
+        <v>-0.04357846898532186</v>
       </c>
       <c r="E84">
-        <v>-0.0001192095988145514</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.0009323623892290847</v>
+      </c>
+      <c r="F84">
+        <v>-0.03316592499842584</v>
+      </c>
+      <c r="G84">
+        <v>0.04519039789698207</v>
+      </c>
+      <c r="H84">
+        <v>-0.04012595622535204</v>
+      </c>
+      <c r="I84">
+        <v>0.04977352413225405</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1381159327189087</v>
+        <v>0.05349526402755844</v>
       </c>
       <c r="C85">
-        <v>0.1428365409008102</v>
+        <v>-0.183567358742247</v>
       </c>
       <c r="D85">
-        <v>0.05258924407871399</v>
+        <v>0.09848714784243039</v>
       </c>
       <c r="E85">
-        <v>0.03272023370493315</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-6.338542331317113e-05</v>
+      </c>
+      <c r="F85">
+        <v>-0.07186013976489174</v>
+      </c>
+      <c r="G85">
+        <v>0.02136258279668534</v>
+      </c>
+      <c r="H85">
+        <v>0.006924194199203746</v>
+      </c>
+      <c r="I85">
+        <v>-0.02484670110836905</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.01501891460281939</v>
+        <v>0.01093049217745717</v>
       </c>
       <c r="C86">
-        <v>0.01011892411900744</v>
+        <v>-0.0359569976015776</v>
       </c>
       <c r="D86">
-        <v>-0.09045187727373627</v>
+        <v>-0.1098514029281381</v>
       </c>
       <c r="E86">
-        <v>0.03721451119163911</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.0115251410805378</v>
+      </c>
+      <c r="F86">
+        <v>-0.003518901813900062</v>
+      </c>
+      <c r="G86">
+        <v>-0.02073572324093067</v>
+      </c>
+      <c r="H86">
+        <v>-0.03219247972011044</v>
+      </c>
+      <c r="I86">
+        <v>0.01603672703882437</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01976721587704799</v>
+        <v>0.01020426489195027</v>
       </c>
       <c r="C87">
-        <v>0.02685407665202118</v>
+        <v>-0.06036724667319473</v>
       </c>
       <c r="D87">
-        <v>-0.120184209537142</v>
+        <v>-0.13822378026949</v>
       </c>
       <c r="E87">
-        <v>0.06035348141740116</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.01558714317848748</v>
+      </c>
+      <c r="F87">
+        <v>-0.0395459002968347</v>
+      </c>
+      <c r="G87">
+        <v>0.03955261219357459</v>
+      </c>
+      <c r="H87">
+        <v>-0.0614484801566725</v>
+      </c>
+      <c r="I87">
+        <v>-0.03990547436110558</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.04976963768600684</v>
+        <v>0.03041967687169057</v>
       </c>
       <c r="C88">
-        <v>0.04403546234802748</v>
+        <v>-0.06776328524578297</v>
       </c>
       <c r="D88">
-        <v>-0.02081419896035398</v>
+        <v>-0.01665255963879073</v>
       </c>
       <c r="E88">
-        <v>0.03265106881457084</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.03061123337658939</v>
+      </c>
+      <c r="F88">
+        <v>-0.02065269256020772</v>
+      </c>
+      <c r="G88">
+        <v>-0.01553162870705064</v>
+      </c>
+      <c r="H88">
+        <v>-0.01019884365778888</v>
+      </c>
+      <c r="I88">
+        <v>0.03490745978977463</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.3251055410945408</v>
+        <v>0.4096936569756732</v>
       </c>
       <c r="C89">
-        <v>-0.3216137209105592</v>
+        <v>0.1448592917088439</v>
       </c>
       <c r="D89">
-        <v>-0.002681684603603681</v>
+        <v>-0.03795334584084551</v>
       </c>
       <c r="E89">
-        <v>0.09219981641099102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.05404622954277005</v>
+      </c>
+      <c r="F89">
+        <v>-0.06173332159603353</v>
+      </c>
+      <c r="G89">
+        <v>-0.0108141516666303</v>
+      </c>
+      <c r="H89">
+        <v>-0.1151536189864969</v>
+      </c>
+      <c r="I89">
+        <v>-0.07454705249647657</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.2585184818463757</v>
+        <v>0.322224367492258</v>
       </c>
       <c r="C90">
-        <v>-0.2344498552321077</v>
+        <v>0.09711459668584048</v>
       </c>
       <c r="D90">
-        <v>-0.04138473283164397</v>
+        <v>-0.03437766966520563</v>
       </c>
       <c r="E90">
-        <v>-0.009266144630650328</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.006782848908785326</v>
+      </c>
+      <c r="F90">
+        <v>0.007687358602802665</v>
+      </c>
+      <c r="G90">
+        <v>0.0655461013395285</v>
+      </c>
+      <c r="H90">
+        <v>0.001733730982742599</v>
+      </c>
+      <c r="I90">
+        <v>-0.03466757653661089</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.152794712676176</v>
+        <v>0.06308032267040627</v>
       </c>
       <c r="C91">
-        <v>0.1866340590570277</v>
+        <v>-0.2074474884087019</v>
       </c>
       <c r="D91">
-        <v>0.1040030824195279</v>
+        <v>0.1071067673059935</v>
       </c>
       <c r="E91">
-        <v>0.06237862835659397</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06078917407643911</v>
+      </c>
+      <c r="F91">
+        <v>-0.06656532410539046</v>
+      </c>
+      <c r="G91">
+        <v>0.004842951815257502</v>
+      </c>
+      <c r="H91">
+        <v>0.005547576202060653</v>
+      </c>
+      <c r="I91">
+        <v>-0.03364676426055205</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.2446441364258184</v>
+        <v>0.3414949397358126</v>
       </c>
       <c r="C92">
-        <v>-0.2590230589613732</v>
+        <v>0.1340011403866795</v>
       </c>
       <c r="D92">
-        <v>0.07247197042329227</v>
+        <v>-0.002876247111348674</v>
       </c>
       <c r="E92">
-        <v>0.01789531637849457</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06231082349809923</v>
+      </c>
+      <c r="F92">
+        <v>-0.03238845035301108</v>
+      </c>
+      <c r="G92">
+        <v>0.03747929934786586</v>
+      </c>
+      <c r="H92">
+        <v>-0.01982641333149885</v>
+      </c>
+      <c r="I92">
+        <v>0.1618671444469288</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.2866025092859121</v>
+        <v>0.3373193537790098</v>
       </c>
       <c r="C93">
-        <v>-0.2458647858834007</v>
+        <v>0.1061930800045827</v>
       </c>
       <c r="D93">
-        <v>-0.01104997044001077</v>
+        <v>0.0168677289719936</v>
       </c>
       <c r="E93">
-        <v>0.01130111397089558</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.027396851472823</v>
+      </c>
+      <c r="F93">
+        <v>-0.006849362798141903</v>
+      </c>
+      <c r="G93">
+        <v>-0.007477779524353783</v>
+      </c>
+      <c r="H93">
+        <v>0.01224842949950885</v>
+      </c>
+      <c r="I93">
+        <v>0.02767253901253871</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2887604148557269</v>
+        <v>0.1198723626348723</v>
       </c>
       <c r="C94">
-        <v>0.2758856579531583</v>
+        <v>-0.3502853897028513</v>
       </c>
       <c r="D94">
-        <v>0.2941298285126822</v>
+        <v>0.3530723226111072</v>
       </c>
       <c r="E94">
-        <v>-0.2615307187839765</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.06116193065932125</v>
+      </c>
+      <c r="F94">
+        <v>0.1052994783274442</v>
+      </c>
+      <c r="G94">
+        <v>0.3343818261228166</v>
+      </c>
+      <c r="H94">
+        <v>0.005559296293385814</v>
+      </c>
+      <c r="I94">
+        <v>0.05162098848147748</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.01351300330418311</v>
+        <v>0.01511646406930359</v>
       </c>
       <c r="C95">
-        <v>0.04160186842772971</v>
+        <v>-0.06420733446351294</v>
       </c>
       <c r="D95">
-        <v>0.0272965932625199</v>
+        <v>-0.09198451684545329</v>
       </c>
       <c r="E95">
-        <v>0.02051608440064923</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1625592261506275</v>
+      </c>
+      <c r="F95">
+        <v>0.02605151404485859</v>
+      </c>
+      <c r="G95">
+        <v>-0.1055146205184198</v>
+      </c>
+      <c r="H95">
+        <v>-0.3119919152631015</v>
+      </c>
+      <c r="I95">
+        <v>0.1101151812796907</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001371338388429863</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0008556997401592928</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0006972600448304947</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003735644103988396</v>
+      </c>
+      <c r="F97">
+        <v>-0.0008537305724025915</v>
+      </c>
+      <c r="G97">
+        <v>0.0007457515990962546</v>
+      </c>
+      <c r="H97">
+        <v>-0.004675646088088622</v>
+      </c>
+      <c r="I97">
+        <v>0.005203574695408252</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1459772818208539</v>
+        <v>0.114335240154862</v>
       </c>
       <c r="C98">
-        <v>0.09210541914363828</v>
+        <v>-0.1575847058125849</v>
       </c>
       <c r="D98">
-        <v>-0.1906276231428017</v>
+        <v>-0.05710103548953671</v>
       </c>
       <c r="E98">
-        <v>-0.1307636882317605</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1944513938004575</v>
+      </c>
+      <c r="F98">
+        <v>0.2505728018388932</v>
+      </c>
+      <c r="G98">
+        <v>-0.2692368905427908</v>
+      </c>
+      <c r="H98">
+        <v>0.2127962946081493</v>
+      </c>
+      <c r="I98">
+        <v>-0.04297371813739632</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.0003466740418723575</v>
+        <v>0.001192338277288031</v>
       </c>
       <c r="C101">
-        <v>0.01898314903907676</v>
+        <v>-0.03745265245549693</v>
       </c>
       <c r="D101">
-        <v>-0.08875081516463601</v>
+        <v>-0.1008427546813217</v>
       </c>
       <c r="E101">
-        <v>0.03732032305299821</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.05622691714051622</v>
+      </c>
+      <c r="F101">
+        <v>-0.03923651497051502</v>
+      </c>
+      <c r="G101">
+        <v>-0.02718306781779431</v>
+      </c>
+      <c r="H101">
+        <v>-0.1468468915336969</v>
+      </c>
+      <c r="I101">
+        <v>0.01630658179283845</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1051568255163774</v>
+        <v>0.02678100342697116</v>
       </c>
       <c r="C102">
-        <v>0.1589443743383095</v>
+        <v>-0.1485882326219174</v>
       </c>
       <c r="D102">
-        <v>0.05856909655848312</v>
+        <v>0.1013141366510215</v>
       </c>
       <c r="E102">
-        <v>-0.08022099025909821</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.04085529316411156</v>
+      </c>
+      <c r="F102">
+        <v>0.06811874262711257</v>
+      </c>
+      <c r="G102">
+        <v>-0.002892165327478491</v>
+      </c>
+      <c r="H102">
+        <v>-0.03775052079552882</v>
+      </c>
+      <c r="I102">
+        <v>-0.02069075796932577</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
